--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B48923\Documents\GitHub\DistantIO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
   <si>
     <t>command</t>
   </si>
@@ -335,6 +340,18 @@
   </si>
   <si>
     <t>TABLE ENTRIES (see below)</t>
+  </si>
+  <si>
+    <t>MCU AUTONOMOUS SIGNALS</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>0x55</t>
+  </si>
+  <si>
+    <t>Alive signal (every 100 ms)</t>
   </si>
 </sst>
 </file>
@@ -619,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -672,24 +689,64 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -702,12 +759,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -735,44 +786,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,7 +1107,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1111,10 +1165,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1342,10 +1396,10 @@
       <c r="B24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>54</v>
@@ -1361,14 +1415,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="29" t="s">
+      <c r="L24" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1402,10 +1456,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="33" t="s">
+      <c r="C26" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -1421,8 +1475,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -1440,22 +1494,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -1470,38 +1524,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="30" t="s">
+      <c r="C34" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="30"/>
+      <c r="D34" s="31"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1519,10 +1573,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:W38"/>
+  <dimension ref="B6:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,129 +1585,130 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="60" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="K8" s="73" t="s">
         <v>92</v>
       </c>
       <c r="L8" s="14"/>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="52" t="s">
+      <c r="Q8" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="52" t="s">
+      <c r="R8" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="52" t="s">
+      <c r="S8" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="T8" s="52" t="s">
+      <c r="T8" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="U8" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="V8" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="W8" s="71" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1662,35 +1717,35 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="62" t="s">
+      <c r="O9" s="37"/>
+      <c r="P9" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="63" t="s">
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="63"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="59"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="39" t="s">
         <v>101</v>
       </c>
@@ -1712,10 +1767,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -1729,31 +1784,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="61" t="s">
+      <c r="N11" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="37"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -1763,10 +1818,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -1781,339 +1836,451 @@
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="M15" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="64"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
-      <c r="I16" s="3" t="s">
+      <c r="C16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="66"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="75"/>
+      <c r="E17" s="14"/>
+      <c r="M17" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="67"/>
+      <c r="V17" s="67"/>
+      <c r="W17" s="67"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="68" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="14"/>
+      <c r="M18" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="I22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="39" t="s">
+      <c r="K22" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="39"/>
-      <c r="M16" s="5" t="s">
+      <c r="L22" s="39"/>
+      <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O16" s="47" t="s">
+      <c r="O22" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="35" t="s">
+      <c r="P22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="I17" s="3" t="s">
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K23" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="38"/>
-      <c r="M17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O17" s="48"/>
-      <c r="P17" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="42"/>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="I18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="38"/>
-      <c r="M21" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="38"/>
-      <c r="M22" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="5"/>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="O23" s="60"/>
+      <c r="P23" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="54"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="47"/>
+      <c r="M25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="47"/>
+      <c r="M26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="L27" s="47"/>
+      <c r="M27" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="47"/>
+      <c r="M28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L29" s="47"/>
+      <c r="M29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E26" s="27" t="s">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E32" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="I26" s="53" t="s">
+      <c r="F32" s="27"/>
+      <c r="I32" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="J26" s="53" t="s">
+      <c r="J32" s="28" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E27" s="27" t="s">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E33" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F33" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D28" s="49" t="s">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D34" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E34" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F34" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D29" s="49"/>
-      <c r="E29" s="27" t="s">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D35" s="46"/>
+      <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F35" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D30" s="49"/>
-      <c r="E30" s="27" t="s">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D36" s="46"/>
+      <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="46" t="s">
+      <c r="J36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="26" t="s">
+      <c r="K36" s="58"/>
+      <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M36" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N30" s="26" t="s">
+      <c r="N36" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="26" t="s">
+      <c r="O36" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P30" s="26" t="s">
+      <c r="P36" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="Q30" s="26" t="s">
+      <c r="Q36" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="R36" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S30" s="26" t="s">
+      <c r="S36" s="26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C31" s="7"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="27" t="s">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="26" t="s">
+      <c r="J37" s="58"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M31" s="45" t="s">
+      <c r="M37" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45" t="s">
+      <c r="N37" s="57"/>
+      <c r="O37" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="26" t="s">
+      <c r="P37" s="57"/>
+      <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="R31" s="26" t="s">
+      <c r="R37" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="S31" s="26" t="s">
+      <c r="S37" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E32" s="27" t="s">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E38" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F38" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="5:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="27" t="s">
+    <row r="39" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L33" s="34" t="s">
+      <c r="L39" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="M33" s="34"/>
-      <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="27" t="s">
+      <c r="M39" s="48"/>
+      <c r="O39" s="18"/>
+    </row>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="E40" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="O40" s="18"/>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="O41" s="18"/>
+    </row>
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+    </row>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+    </row>
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="N11:W11"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
+  <mergeCells count="37">
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2124,24 +2291,12 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="L33:M37"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="P17:S17"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N11:W11"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440"/>
   </bookViews>
   <sheets>
-    <sheet name="serial protocol" sheetId="2" r:id="rId1"/>
-    <sheet name="logger protocol" sheetId="4" r:id="rId2"/>
+    <sheet name="distant IO protocol" sheetId="5" r:id="rId1"/>
+    <sheet name="serial protocol" sheetId="2" r:id="rId2"/>
+    <sheet name="deprecated protocol" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>command</t>
   </si>
@@ -300,9 +301,6 @@
     <t>get variable value</t>
   </si>
   <si>
-    <t>get variable table</t>
-  </si>
-  <si>
     <t>byte 6</t>
   </si>
   <si>
@@ -352,6 +350,39 @@
   </si>
   <si>
     <t>Alive signal (every 100 ms)</t>
+  </si>
+  <si>
+    <t>get descriptors</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>get-descriptors</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>0xFF</t>
+  </si>
+  <si>
+    <t>cmd ID</t>
+  </si>
+  <si>
+    <t>data ID</t>
+  </si>
+  <si>
+    <t>data ( 8 bytes)</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Payload</t>
   </si>
 </sst>
 </file>
@@ -636,7 +667,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -693,128 +724,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -822,15 +733,148 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1115,13 +1159,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F7:U12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="H7" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+    </row>
+    <row r="8" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="H8" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="39"/>
+      <c r="K8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="U8" s="41"/>
+    </row>
+    <row r="9" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1</v>
+      </c>
+      <c r="J9" s="38">
+        <v>2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>3</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+      <c r="N9" s="5">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5">
+        <v>7</v>
+      </c>
+      <c r="P9" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>9</v>
+      </c>
+      <c r="R9" s="5">
+        <v>10</v>
+      </c>
+      <c r="S9" s="5">
+        <v>11</v>
+      </c>
+      <c r="T9" s="3">
+        <v>12</v>
+      </c>
+      <c r="U9" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="H10" s="6"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="6"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="L8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="H7:U7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1165,10 +1405,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="32"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1396,10 +1636,10 @@
       <c r="B24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="33"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>54</v>
@@ -1415,14 +1655,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="30" t="s">
+      <c r="L24" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1456,10 +1696,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -1475,8 +1715,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -1494,22 +1734,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="43"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -1524,38 +1764,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1571,15 +1811,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
@@ -1589,126 +1829,126 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="71"/>
+      <c r="S7" s="71"/>
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71" t="s">
+      <c r="C8" s="77" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="78"/>
+      <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J8" s="73" t="s">
+      <c r="J8" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="N8" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="P8" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="S8" s="73" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" s="73" t="s">
+      <c r="U8" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="U8" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="V8" s="74" t="s">
+      <c r="V8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="71" t="s">
+      <c r="W8" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="43"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1717,43 +1957,43 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="38" t="s">
+      <c r="O9" s="67"/>
+      <c r="P9" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
       <c r="M10" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="7"/>
@@ -1767,15 +2007,19 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="45"/>
+      <c r="C11" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="76"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1784,49 +2028,49 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
+      <c r="N11" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="37"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="M12" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="76"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
@@ -1838,93 +2082,93 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="63"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="63"/>
-      <c r="R15" s="63"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="64"/>
+      <c r="M15" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="53"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="66"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="75"/>
+      <c r="C17" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="57"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67"/>
-      <c r="S17" s="67"/>
-      <c r="T17" s="67"/>
-      <c r="U17" s="67"/>
-      <c r="V17" s="67"/>
-      <c r="W17" s="67"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="68"/>
+      <c r="C18" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="58"/>
       <c r="E18" s="14"/>
-      <c r="M18" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
+      <c r="M18" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
-      <c r="R19" s="67"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+      <c r="V19" s="30"/>
+      <c r="W19" s="30"/>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="14"/>
@@ -1942,22 +2186,22 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="39"/>
+      <c r="L22" s="40"/>
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="59" t="s">
+      <c r="O22" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="49" t="s">
+      <c r="P22" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="61"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -1967,23 +2211,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="47" t="s">
+      <c r="K23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="47"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="60"/>
-      <c r="P23" s="52" t="s">
+      <c r="O23" s="50"/>
+      <c r="P23" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="54"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -1993,10 +2237,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="47" t="s">
+      <c r="K24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="47"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2008,10 +2252,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="47"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2026,10 +2270,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="47" t="s">
+      <c r="K26" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="47"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2044,10 +2288,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="47" t="s">
+      <c r="K27" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="47"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2059,10 +2303,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="47" t="s">
+      <c r="K28" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="47"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2074,10 +2318,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="47" t="s">
+      <c r="K29" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="47"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2088,13 +2332,13 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="56"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
@@ -2103,10 +2347,10 @@
       </c>
       <c r="F32" s="27"/>
       <c r="I32" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="3:19" x14ac:dyDescent="0.25">
@@ -2118,7 +2362,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="46" t="s">
+      <c r="D34" s="66" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2132,7 +2376,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="46"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2141,17 +2385,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="46"/>
+      <c r="D36" s="66"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="58" t="s">
+      <c r="J36" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="58"/>
+      <c r="K36" s="48"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2179,26 +2423,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="46"/>
+      <c r="D37" s="66"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="58"/>
-      <c r="K37" s="58"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="57" t="s">
+      <c r="M37" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57" t="s">
+      <c r="N37" s="47"/>
+      <c r="O37" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="57"/>
+      <c r="P37" s="47"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2224,10 +2468,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="48" t="s">
+      <c r="L39" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="48"/>
+      <c r="M39" s="68"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2237,22 +2481,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="48"/>
-      <c r="M40" s="48"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="48"/>
-      <c r="M41" s="48"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="48"/>
-      <c r="M42" s="48"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2260,27 +2504,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2297,6 +2520,27 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
   <si>
     <t>command</t>
   </si>
@@ -383,6 +383,30 @@
   </si>
   <si>
     <t>Payload</t>
+  </si>
+  <si>
+    <t>alive-signal</t>
+  </si>
+  <si>
+    <t>MCU</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x17</t>
   </si>
 </sst>
 </file>
@@ -667,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -743,6 +767,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -752,6 +779,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,9 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1159,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:U12"/>
+  <dimension ref="F7:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,27 +1219,27 @@
       <c r="H8" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="40" t="s">
+      <c r="L8" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="41" t="s">
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="U8" s="41"/>
+      <c r="U8" s="44"/>
     </row>
     <row r="9" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
@@ -1341,6 +1368,52 @@
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1405,10 +1478,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1655,14 +1728,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="42" t="s">
+      <c r="L24" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1696,10 +1769,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -1715,8 +1788,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -1734,22 +1807,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="43"/>
+      <c r="D30" s="47"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -1764,38 +1837,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1829,58 +1902,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="72" t="s">
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="71" t="s">
+      <c r="M6" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="71"/>
-      <c r="S7" s="71"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="71"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="78"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -1938,17 +2011,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="79"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1957,41 +2030,41 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="67"/>
-      <c r="P9" s="80" t="s">
+      <c r="O9" s="70"/>
+      <c r="P9" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="81" t="s">
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="81"/>
-      <c r="V9" s="81"/>
-      <c r="W9" s="81"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="76"/>
+      <c r="D10" s="79"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="40" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
       <c r="M10" s="14" t="s">
         <v>102</v>
       </c>
@@ -2007,10 +2080,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2028,31 +2101,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="79" t="s">
+      <c r="N11" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="79"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2062,10 +2135,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="76"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2082,42 +2155,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="53"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="59"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2135,10 +2208,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2186,22 +2259,22 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="40" t="s">
+      <c r="K22" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="40"/>
+      <c r="L22" s="43"/>
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="49" t="s">
+      <c r="O22" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="59" t="s">
+      <c r="P22" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="61"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="64"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2211,23 +2284,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="62"/>
+      <c r="L23" s="65"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="50"/>
-      <c r="P23" s="63" t="s">
+      <c r="O23" s="53"/>
+      <c r="P23" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="68"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2237,10 +2310,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="62"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2252,10 +2325,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="62"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2270,10 +2343,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2288,10 +2361,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2303,10 +2376,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="65"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2318,10 +2391,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="62"/>
+      <c r="L29" s="65"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2332,8 +2405,8 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="70"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2362,7 +2435,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="69" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2376,7 +2449,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="66"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2385,17 +2458,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="66"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="48" t="s">
+      <c r="J36" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="48"/>
+      <c r="K36" s="51"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2423,26 +2496,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="66"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="47" t="s">
+      <c r="M37" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="47"/>
+      <c r="P37" s="50"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2468,10 +2541,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="68"/>
+      <c r="M39" s="71"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2481,22 +2554,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
+      <c r="L41" s="71"/>
+      <c r="M41" s="71"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
+      <c r="L43" s="71"/>
+      <c r="M43" s="71"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="distant IO protocol" sheetId="5" r:id="rId1"/>
-    <sheet name="serial protocol" sheetId="2" r:id="rId2"/>
+    <sheet name="frame delimiting protocol" sheetId="2" r:id="rId2"/>
     <sheet name="deprecated protocol" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="131">
   <si>
     <t>command</t>
   </si>
@@ -407,6 +407,18 @@
   </si>
   <si>
     <t>0x17</t>
+  </si>
+  <si>
+    <t>returned-descriptor</t>
+  </si>
+  <si>
+    <t>var-id</t>
+  </si>
+  <si>
+    <t>var-type</t>
+  </si>
+  <si>
+    <t>var-name</t>
   </si>
 </sst>
 </file>
@@ -691,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -794,6 +806,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,9 +899,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -854,49 +911,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1189,12 +1216,13 @@
   <dimension ref="F7:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="6:21" x14ac:dyDescent="0.25">
@@ -1292,18 +1320,32 @@
       </c>
     </row>
     <row r="10" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H10" s="6"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="F10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="J10" s="86"/>
+      <c r="K10" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L10" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="89"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
@@ -1416,11 +1458,13 @@
       <c r="U13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="L8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="H7:U7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="L10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1902,58 +1946,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="75" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="74" t="s">
+      <c r="M6" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="74"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2011,17 +2055,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="79"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2030,35 +2074,35 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="83" t="s">
+      <c r="O9" s="60"/>
+      <c r="P9" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="84" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="79"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="43" t="s">
         <v>100</v>
       </c>
@@ -2080,10 +2124,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2101,31 +2145,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="82" t="s">
+      <c r="N11" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="79"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="70"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2135,10 +2179,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="79"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2155,42 +2199,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="54" t="s">
+      <c r="M15" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="56"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="72"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="59"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="75"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2208,10 +2252,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2266,15 +2310,15 @@
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="52" t="s">
+      <c r="O22" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="62" t="s">
+      <c r="P22" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="64"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2284,23 +2328,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="65" t="s">
+      <c r="K23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="53"/>
-      <c r="P23" s="66" t="s">
+      <c r="O23" s="69"/>
+      <c r="P23" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="68"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="83"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2310,10 +2354,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="65" t="s">
+      <c r="K24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="65"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2325,10 +2369,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="65" t="s">
+      <c r="K25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="65"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2343,10 +2387,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="65" t="s">
+      <c r="K26" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="65"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2361,10 +2405,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="65"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2376,10 +2420,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="65" t="s">
+      <c r="K28" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="65"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2391,10 +2435,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="65"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2405,8 +2449,8 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2435,7 +2479,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="84" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2449,7 +2493,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="69"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2458,17 +2502,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="69"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="51" t="s">
+      <c r="J36" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="51"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2496,26 +2540,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="69"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="50" t="s">
+      <c r="M37" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50" t="s">
+      <c r="N37" s="66"/>
+      <c r="O37" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="50"/>
+      <c r="P37" s="66"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2541,10 +2585,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="71" t="s">
+      <c r="L39" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="71"/>
+      <c r="M39" s="63"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2554,22 +2598,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2577,6 +2621,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2593,27 +2658,6 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="distant IO protocol" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
   <si>
     <t>command</t>
   </si>
@@ -419,6 +419,12 @@
   </si>
   <si>
     <t>var-name</t>
+  </si>
+  <si>
+    <t>returned-value</t>
+  </si>
+  <si>
+    <t>data big endian</t>
   </si>
 </sst>
 </file>
@@ -794,6 +800,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,6 +827,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,94 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1215,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F7:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,39 +1335,53 @@
       <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="86"/>
+      <c r="J10" s="47"/>
       <c r="K10" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="87" t="s">
+      <c r="L10" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="88"/>
-      <c r="S10" s="89"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="50"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H11" s="6"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="50"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
@@ -1458,7 +1478,9 @@
       <c r="U13" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="L11:S11"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="L8:S8"/>
     <mergeCell ref="T8:U8"/>
@@ -1522,10 +1544,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1772,14 +1794,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1813,10 +1835,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -1832,8 +1854,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -1851,22 +1873,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="52"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -1881,38 +1903,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="52"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1932,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1946,58 +1968,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51" t="s">
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2055,17 +2077,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="84"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="82"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2074,35 +2096,35 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="59" t="s">
+      <c r="O9" s="75"/>
+      <c r="P9" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="61" t="s">
+      <c r="Q9" s="88"/>
+      <c r="R9" s="88"/>
+      <c r="S9" s="88"/>
+      <c r="T9" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="60"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="43" t="s">
         <v>100</v>
       </c>
@@ -2124,10 +2146,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="84"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2145,31 +2167,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="75"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2179,10 +2201,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="84"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2199,42 +2221,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="70" t="s">
+      <c r="M15" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="72"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="61"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="75"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="64"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2252,10 +2274,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2310,15 +2332,15 @@
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="68" t="s">
+      <c r="O22" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="78" t="s">
+      <c r="P22" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="69"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2328,23 +2350,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="62"/>
+      <c r="L23" s="70"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="81" t="s">
+      <c r="O23" s="58"/>
+      <c r="P23" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="83"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="73"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2354,10 +2376,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="62"/>
+      <c r="L24" s="70"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2369,10 +2391,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="62"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2387,10 +2409,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="70"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2405,10 +2427,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="70"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2420,10 +2442,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="70"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2435,10 +2457,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="62"/>
+      <c r="L29" s="70"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2449,8 +2471,8 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="78"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2479,7 +2501,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="74" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2493,7 +2515,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="84"/>
+      <c r="D35" s="74"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2502,17 +2524,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="84"/>
+      <c r="D36" s="74"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="67"/>
+      <c r="K36" s="56"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2540,26 +2562,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="84"/>
+      <c r="D37" s="74"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="56"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="66" t="s">
+      <c r="M37" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66" t="s">
+      <c r="N37" s="55"/>
+      <c r="O37" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="66"/>
+      <c r="P37" s="55"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2585,10 +2607,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="63" t="s">
+      <c r="L39" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="63"/>
+      <c r="M39" s="76"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2598,22 +2620,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2621,27 +2643,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2658,6 +2659,27 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440"/>
   </bookViews>
   <sheets>
     <sheet name="distant IO protocol" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="142">
   <si>
     <t>command</t>
   </si>
@@ -425,6 +425,33 @@
   </si>
   <si>
     <t>data big endian</t>
+  </si>
+  <si>
+    <t>write-value</t>
+  </si>
+  <si>
+    <t>data big-endian</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>0xEE</t>
+  </si>
+  <si>
+    <t>0xDD</t>
+  </si>
+  <si>
+    <t>0xCC</t>
+  </si>
+  <si>
+    <t>stop-all</t>
+  </si>
+  <si>
+    <t>start-reading</t>
+  </si>
+  <si>
+    <t>stop-reading</t>
   </si>
 </sst>
 </file>
@@ -709,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -785,9 +812,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,21 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,6 +845,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -872,9 +938,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -887,50 +950,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1219,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:U13"/>
+  <dimension ref="F7:U17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,70 +1369,66 @@
       </c>
     </row>
     <row r="10" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>120</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="46" t="s">
+      <c r="I10" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="47"/>
-      <c r="K10" s="26" t="s">
+      <c r="J10" s="86"/>
+      <c r="K10" s="89" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="50"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="41"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
     <row r="11" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>120</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="L11" s="48" t="s">
+      <c r="I11" s="87"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="50"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="41"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1432,63 +1471,223 @@
       <c r="U12" s="3"/>
     </row>
     <row r="13" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="4" t="s">
+      <c r="I13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="M13" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="N13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="Q13" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="5" t="s">
         <v>126</v>
       </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
+    <row r="14" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F15" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="F17" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I11:J11"/>
+  <mergeCells count="11">
+    <mergeCell ref="H7:U7"/>
+    <mergeCell ref="L10:S10"/>
+    <mergeCell ref="L14:S14"/>
+    <mergeCell ref="I10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I14:J16"/>
+    <mergeCell ref="K14:K16"/>
     <mergeCell ref="L11:S11"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="L8:S8"/>
     <mergeCell ref="T8:U8"/>
-    <mergeCell ref="H7:U7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="L10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1544,10 +1743,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1794,14 +1993,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="51" t="s">
+      <c r="L24" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1835,10 +2034,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -1854,8 +2053,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -1873,22 +2072,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="47"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -1903,38 +2102,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="52"/>
+      <c r="D34" s="47"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1954,7 +2153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1968,58 +2167,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="79"/>
-      <c r="W7" s="79"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="86"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2077,17 +2276,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="55"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="82"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2096,35 +2295,35 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="75"/>
-      <c r="P9" s="88" t="s">
+      <c r="O9" s="60"/>
+      <c r="P9" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="88"/>
-      <c r="T9" s="89" t="s">
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="60"/>
       <c r="H10" s="43" t="s">
         <v>100</v>
       </c>
@@ -2146,10 +2345,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="55"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2167,31 +2366,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="87" t="s">
+      <c r="N11" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="83" t="s">
+      <c r="C12" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="75"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2201,10 +2400,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="83" t="s">
+      <c r="C13" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="55"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2221,42 +2420,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="59" t="s">
+      <c r="M15" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="61"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="72"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="63"/>
-      <c r="R16" s="63"/>
-      <c r="S16" s="63"/>
-      <c r="T16" s="63"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="64"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="75"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="65"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2274,10 +2473,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="66"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2332,15 +2531,15 @@
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="57" t="s">
+      <c r="O22" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="67" t="s">
+      <c r="P22" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="69"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="80"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2350,23 +2549,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="70" t="s">
+      <c r="K23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="70"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="71" t="s">
+      <c r="O23" s="69"/>
+      <c r="P23" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="73"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="83"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2376,10 +2575,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="70" t="s">
+      <c r="K24" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="70"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2391,10 +2590,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="70" t="s">
+      <c r="K25" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="70"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2409,10 +2608,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="70"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2427,10 +2626,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="70" t="s">
+      <c r="K27" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="70"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2442,10 +2641,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="70" t="s">
+      <c r="K28" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="70"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2457,10 +2656,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="70" t="s">
+      <c r="K29" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="70"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2471,8 +2670,8 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="78"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2501,7 +2700,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="84" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2515,7 +2714,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="74"/>
+      <c r="D35" s="84"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2524,17 +2723,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="74"/>
+      <c r="D36" s="84"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="56" t="s">
+      <c r="J36" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="56"/>
+      <c r="K36" s="67"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2562,26 +2761,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="74"/>
+      <c r="D37" s="84"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="55" t="s">
+      <c r="M37" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55" t="s">
+      <c r="N37" s="66"/>
+      <c r="O37" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="55"/>
+      <c r="P37" s="66"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2607,10 +2806,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="76" t="s">
+      <c r="L39" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="76"/>
+      <c r="M39" s="63"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2620,22 +2819,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="76"/>
-      <c r="M40" s="76"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="76"/>
-      <c r="M43" s="76"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2643,6 +2842,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2659,27 +2879,6 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
   <si>
     <t>command</t>
   </si>
@@ -433,19 +433,10 @@
     <t>data big-endian</t>
   </si>
   <si>
-    <t>0x07</t>
-  </si>
-  <si>
     <t>0xEE</t>
   </si>
   <si>
     <t>0xDD</t>
-  </si>
-  <si>
-    <t>0xCC</t>
-  </si>
-  <si>
-    <t>stop-all</t>
   </si>
   <si>
     <t>start-reading</t>
@@ -812,168 +803,168 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1265,7 +1256,7 @@
   <dimension ref="F7:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,48 +1266,48 @@
   </cols>
   <sheetData>
     <row r="7" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H7" s="45" t="s">
+      <c r="H7" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
-      <c r="R7" s="45"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
     </row>
     <row r="8" spans="6:21" x14ac:dyDescent="0.25">
       <c r="H8" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44" t="s">
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="U8" s="44"/>
+      <c r="U8" s="55"/>
     </row>
     <row r="9" spans="6:21" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
@@ -1378,23 +1369,23 @@
       <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="85" t="s">
+      <c r="I10" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="89" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="45"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
@@ -1408,19 +1399,19 @@
       <c r="H11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="39" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
@@ -1526,41 +1517,41 @@
       <c r="H14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="53" t="s">
         <v>128</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="67" t="s">
+      <c r="J14" s="53"/>
+      <c r="K14" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
     <row r="15" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F15" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="91" t="s">
+      <c r="F15" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>112</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="67"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>23</v>
@@ -1581,26 +1572,26 @@
         <v>23</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
     <row r="16" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F16" s="91" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="91" t="s">
+      <c r="F16" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="39" t="s">
         <v>112</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="67"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
       <c r="L16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>23</v>
@@ -1621,54 +1612,26 @@
         <v>23</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F17" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="G17" s="91" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>138</v>
-      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
@@ -1743,10 +1706,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -1974,10 +1937,10 @@
       <c r="B24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>54</v>
@@ -1993,14 +1956,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="46" t="s">
+      <c r="L24" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -2034,10 +1997,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="49"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -2053,8 +2016,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -2072,22 +2035,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="57"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -2102,38 +2065,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="47"/>
+      <c r="D34" s="57"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2167,58 +2130,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="51" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="50" t="s">
+      <c r="M6" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="50"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2276,17 +2239,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2295,41 +2258,41 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="60"/>
-      <c r="P9" s="59" t="s">
+      <c r="O9" s="79"/>
+      <c r="P9" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="61" t="s">
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="60" t="s">
+      <c r="F10" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="43" t="s">
+      <c r="G10" s="79"/>
+      <c r="H10" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="M10" s="14" t="s">
         <v>102</v>
       </c>
@@ -2345,10 +2308,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2366,31 +2329,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="58" t="s">
+      <c r="N11" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2400,10 +2363,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2420,42 +2383,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="70" t="s">
+      <c r="M15" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="72"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="75"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2473,10 +2436,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2524,22 +2487,22 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="K22" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="43"/>
+      <c r="L22" s="46"/>
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="68" t="s">
+      <c r="O22" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="78" t="s">
+      <c r="P22" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="80"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="73"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2549,23 +2512,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="62" t="s">
+      <c r="K23" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="62"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="69"/>
-      <c r="P23" s="81" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="83"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2575,10 +2538,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="62"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2590,10 +2553,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="62" t="s">
+      <c r="K25" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="62"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2608,10 +2571,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="62"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2626,10 +2589,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="62"/>
+      <c r="L27" s="74"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2641,10 +2604,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="62"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2656,10 +2619,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="62"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2670,8 +2633,8 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2700,7 +2663,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2714,7 +2677,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="84"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2723,17 +2686,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="84"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="67"/>
+      <c r="K36" s="54"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2761,26 +2724,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="84"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="66" t="s">
+      <c r="M37" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66" t="s">
+      <c r="N37" s="60"/>
+      <c r="O37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="66"/>
+      <c r="P37" s="60"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2806,10 +2769,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="63" t="s">
+      <c r="L39" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="63"/>
+      <c r="M39" s="80"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2819,22 +2782,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2842,27 +2805,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2879,6 +2821,27 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="140">
   <si>
     <t>command</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>stop-reading</t>
+  </si>
+  <si>
+    <t>use this byte as group id ?</t>
   </si>
 </sst>
 </file>
@@ -864,6 +867,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,9 +957,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -920,51 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1253,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:U17"/>
+  <dimension ref="F7:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,6 +1637,11 @@
       <c r="S17" s="5"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
+    </row>
+    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>139</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2130,58 +2138,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2239,17 +2247,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2258,35 +2266,35 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="79" t="s">
+      <c r="N9" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="79"/>
-      <c r="P9" s="92" t="s">
+      <c r="O9" s="70"/>
+      <c r="P9" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="93" t="s">
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="79"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="46" t="s">
         <v>100</v>
       </c>
@@ -2308,10 +2316,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="65"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2329,31 +2337,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="91" t="s">
+      <c r="N11" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="79"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2363,10 +2371,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2383,42 +2391,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="65"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="81"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="68"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="84"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2436,10 +2444,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2494,15 +2502,15 @@
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="71" t="s">
+      <c r="P22" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="73"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
@@ -2512,23 +2520,23 @@
       <c r="J23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="74"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="75" t="s">
+      <c r="O23" s="78"/>
+      <c r="P23" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="92"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
@@ -2538,10 +2546,10 @@
       <c r="J24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
@@ -2553,10 +2561,10 @@
       <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2571,10 +2579,10 @@
       <c r="J26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="74" t="s">
+      <c r="K26" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="72"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2589,10 +2597,10 @@
       <c r="J27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="74"/>
+      <c r="L27" s="72"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
@@ -2604,10 +2612,10 @@
       <c r="J28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
@@ -2619,10 +2627,10 @@
       <c r="J29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="74" t="s">
+      <c r="K29" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="74"/>
+      <c r="L29" s="72"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2633,8 +2641,8 @@
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2663,7 +2671,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="93" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2677,7 +2685,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="78"/>
+      <c r="D35" s="93"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2686,7 +2694,7 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="78"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
@@ -2724,7 +2732,7 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="78"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
@@ -2736,14 +2744,14 @@
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60" t="s">
+      <c r="N37" s="76"/>
+      <c r="O37" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="60"/>
+      <c r="P37" s="76"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2769,10 +2777,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="80" t="s">
+      <c r="L39" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="80"/>
+      <c r="M39" s="73"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2782,22 +2790,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2805,6 +2813,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2821,27 +2850,6 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
   <si>
     <t>command</t>
   </si>
@@ -415,9 +415,6 @@
     <t>var-id</t>
   </si>
   <si>
-    <t>var-type</t>
-  </si>
-  <si>
     <t>var-name</t>
   </si>
   <si>
@@ -445,7 +442,34 @@
     <t>stop-reading</t>
   </si>
   <si>
-    <t>use this byte as group id ?</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>id*</t>
+  </si>
+  <si>
+    <t>id[15:10]</t>
+  </si>
+  <si>
+    <t>group-id</t>
+  </si>
+  <si>
+    <t>id[9:0]</t>
+  </si>
+  <si>
+    <t>Bits:</t>
+  </si>
+  <si>
+    <t>*id contains group-id &amp; var-id</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -867,6 +891,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,77 +990,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1256,406 +1280,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:U20"/>
+  <dimension ref="B2:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="5.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H7" s="42" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-    </row>
-    <row r="8" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="H8" s="37" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="E3" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="36" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="46" t="s">
+      <c r="H3" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="55" t="s">
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="55" t="s">
         <v>117</v>
       </c>
-      <c r="U8" s="55"/>
-    </row>
-    <row r="9" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
+      <c r="Q3" s="55"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H9" s="6">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="38">
+      <c r="E4" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="38">
+      <c r="F4" s="38">
         <v>2</v>
       </c>
-      <c r="K9" s="26">
+      <c r="G4" s="26">
         <v>3</v>
       </c>
-      <c r="L9" s="5">
+      <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="M9" s="5">
+      <c r="I4" s="5">
         <v>5</v>
       </c>
-      <c r="N9" s="5">
+      <c r="J4" s="5">
         <v>6</v>
       </c>
-      <c r="O9" s="5">
+      <c r="K4" s="5">
         <v>7</v>
       </c>
-      <c r="P9" s="5">
+      <c r="L4" s="5">
         <v>8</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="M4" s="5">
         <v>9</v>
       </c>
-      <c r="R9" s="5">
+      <c r="N4" s="5">
         <v>10</v>
       </c>
-      <c r="S9" s="5">
+      <c r="O4" s="5">
         <v>11</v>
       </c>
-      <c r="T9" s="3">
+      <c r="P4" s="3">
         <v>12</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Q4" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="47" t="s">
+      <c r="E5" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="6" t="s">
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="6" t="s">
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="6" t="s">
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="6" t="s">
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F15" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H15" s="6" t="s">
+    </row>
+    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F16" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="H16" s="6" t="s">
+    </row>
+    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row r="20" spans="6:21" x14ac:dyDescent="0.25">
-      <c r="I20" t="s">
-        <v>139</v>
+    </row>
+    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H7:U7"/>
-    <mergeCell ref="L10:S10"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="I10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="I14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L11:S11"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="L8:S8"/>
-    <mergeCell ref="T8:U8"/>
+  <mergeCells count="12">
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="E5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="H3:O3"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1666,7 +1787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2124,8 +2245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:W44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,58 +2259,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="61" t="s">
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="60" t="s">
+      <c r="M6" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="90"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2247,17 +2368,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="88"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2266,35 +2387,35 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="69" t="s">
+      <c r="O9" s="79"/>
+      <c r="P9" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="71" t="s">
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="71"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="71"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="88"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="46" t="s">
         <v>100</v>
       </c>
@@ -2316,10 +2437,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2337,31 +2458,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="68" t="s">
+      <c r="N11" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="65"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="70" t="s">
+      <c r="F12" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="70"/>
+      <c r="G12" s="79"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2371,10 +2492,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="65"/>
+      <c r="D13" s="88"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2391,42 +2512,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="79" t="s">
+      <c r="M15" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="80"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="80"/>
-      <c r="U15" s="80"/>
-      <c r="V15" s="80"/>
-      <c r="W15" s="81"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="83"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="83"/>
-      <c r="S16" s="83"/>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="83"/>
-      <c r="W16" s="84"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2444,10 +2565,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2489,12 +2610,6 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="I22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="K22" s="46" t="s">
         <v>37</v>
       </c>
@@ -2502,69 +2617,51 @@
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="77" t="s">
+      <c r="O22" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="87" t="s">
+      <c r="P22" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="88"/>
-      <c r="S22" s="89"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="73"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="I23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="72" t="s">
+      <c r="K23" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="72"/>
+      <c r="L23" s="74"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="78"/>
-      <c r="P23" s="90" t="s">
+      <c r="O23" s="62"/>
+      <c r="P23" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="92"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="77"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
-      <c r="I24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" s="72" t="s">
+      <c r="K24" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="72"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="72" t="s">
+      <c r="K25" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="72"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2573,16 +2670,10 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K26" s="72" t="s">
+      <c r="K26" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="72"/>
+      <c r="L26" s="74"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2591,46 +2682,28 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="72"/>
+      <c r="L27" s="74"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="72"/>
+      <c r="L28" s="74"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="72"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2639,10 +2712,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="75"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2671,7 +2742,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="93" t="s">
+      <c r="D34" s="78" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2685,7 +2756,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="93"/>
+      <c r="D35" s="78"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2694,7 +2765,7 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="93"/>
+      <c r="D36" s="78"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
@@ -2732,7 +2803,7 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="93"/>
+      <c r="D37" s="78"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
@@ -2744,14 +2815,14 @@
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="76" t="s">
+      <c r="M37" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76" t="s">
+      <c r="N37" s="60"/>
+      <c r="O37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="76"/>
+      <c r="P37" s="60"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2777,10 +2848,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="73" t="s">
+      <c r="L39" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="73"/>
+      <c r="M39" s="80"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2790,22 +2861,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="73"/>
-      <c r="M40" s="73"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="73"/>
-      <c r="M41" s="73"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="73"/>
-      <c r="M42" s="73"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="73"/>
-      <c r="M43" s="73"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2813,27 +2884,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2850,6 +2900,27 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="151">
   <si>
     <t>command</t>
   </si>
@@ -470,6 +470,15 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>set-refresh-rate</t>
+  </si>
+  <si>
+    <t>get-refresh-rate</t>
+  </si>
+  <si>
+    <t>0x08</t>
   </si>
 </sst>
 </file>
@@ -555,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -749,12 +758,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -837,6 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -891,6 +914,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -933,9 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -948,51 +1013,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1280,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q26"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,48 +1315,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D3" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="53"/>
+      <c r="F3" s="54"/>
       <c r="G3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="55" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="Q3" s="55"/>
+      <c r="Q3" s="56"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1396,23 +1418,23 @@
       <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="51" t="s">
+      <c r="F5" s="49"/>
+      <c r="G5" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="46"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
@@ -1426,19 +1448,19 @@
       <c r="D6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="43" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="46"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
@@ -1544,23 +1566,23 @@
       <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54" t="s">
+      <c r="F9" s="54"/>
+      <c r="G9" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
@@ -1574,9 +1596,9 @@
       <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
       <c r="H10" s="5" t="s">
         <v>134</v>
       </c>
@@ -1614,9 +1636,9 @@
       <c r="D11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="5" t="s">
         <v>135</v>
       </c>
@@ -1645,9 +1667,15 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
       <c r="G12" s="41"/>
@@ -1662,110 +1690,121 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E14" s="79" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="94" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E15" s="38" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F19" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G19" s="38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="E16" s="38" t="s">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F20" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G16" s="38" t="s">
+      <c r="G20" s="38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="26" t="s">
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H22" s="26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="26" t="s">
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H23" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="26" t="s">
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G24" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H24" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="26" t="s">
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G25" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H25" s="26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="26" t="s">
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G26" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H26" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="26" t="s">
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H27" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="26" t="s">
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H28" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="26" t="s">
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G29" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H29" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="26" t="s">
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H30" s="26" t="s">
         <v>146</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="D2:Q2"/>
     <mergeCell ref="H5:O5"/>
     <mergeCell ref="H9:O9"/>
@@ -1835,10 +1874,10 @@
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="58"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
@@ -2066,10 +2105,10 @@
       <c r="B24" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>54</v>
@@ -2085,14 +2124,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="56" t="s">
+      <c r="L24" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -2126,10 +2165,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -2145,8 +2184,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -2164,22 +2203,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="57"/>
+      <c r="D30" s="58"/>
       <c r="F30" s="23" t="s">
         <v>54</v>
       </c>
@@ -2194,38 +2233,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="57"/>
+      <c r="D34" s="58"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2259,58 +2298,58 @@
   </cols>
   <sheetData>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="83" t="s">
+      <c r="M6" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="90"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="31" t="s">
         <v>1</v>
       </c>
@@ -2368,17 +2407,17 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="88"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="86"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -2387,41 +2426,41 @@
       <c r="M9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="79" t="s">
+      <c r="N9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="O9" s="79"/>
-      <c r="P9" s="92" t="s">
+      <c r="O9" s="42"/>
+      <c r="P9" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="93" t="s">
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="66"/>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="46" t="s">
+      <c r="G10" s="42"/>
+      <c r="H10" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
       <c r="M10" s="14" t="s">
         <v>102</v>
       </c>
@@ -2437,10 +2476,10 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="88"/>
+      <c r="D11" s="66"/>
       <c r="E11" s="6" t="s">
         <v>26</v>
       </c>
@@ -2458,31 +2497,31 @@
       <c r="M11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="91" t="s">
+      <c r="N11" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="91"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C12" s="87" t="s">
+      <c r="C12" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="66"/>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="79"/>
+      <c r="G12" s="42"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
@@ -2492,10 +2531,10 @@
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="88"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="6" t="s">
         <v>28</v>
       </c>
@@ -2512,42 +2551,42 @@
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="M15" s="63" t="s">
+      <c r="M15" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="65"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="80"/>
+      <c r="S15" s="80"/>
+      <c r="T15" s="80"/>
+      <c r="U15" s="80"/>
+      <c r="V15" s="80"/>
+      <c r="W15" s="81"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="67"/>
-      <c r="W16" s="68"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="84"/>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="14"/>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="14"/>
       <c r="M17" s="29" t="s">
         <v>1</v>
@@ -2565,10 +2604,10 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="14"/>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="14"/>
       <c r="M18" s="35" t="s">
         <v>106</v>
@@ -2610,58 +2649,58 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="14"/>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="46"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="O22" s="61" t="s">
+      <c r="O22" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="P22" s="71" t="s">
+      <c r="P22" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="73"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="88"/>
+      <c r="S22" s="89"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="14"/>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="74"/>
+      <c r="L23" s="72"/>
       <c r="M23" s="5" t="s">
         <v>49</v>
       </c>
       <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="62"/>
-      <c r="P23" s="75" t="s">
+      <c r="O23" s="78"/>
+      <c r="P23" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="77"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+      <c r="S23" s="92"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="14"/>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="L24" s="74"/>
+      <c r="L24" s="72"/>
       <c r="M24" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="5" t="s">
         <v>51</v>
       </c>
@@ -2670,10 +2709,10 @@
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K26" s="74" t="s">
+      <c r="K26" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="L26" s="74"/>
+      <c r="L26" s="72"/>
       <c r="M26" s="5" t="s">
         <v>49</v>
       </c>
@@ -2682,28 +2721,28 @@
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="74"/>
+      <c r="L27" s="72"/>
       <c r="M27" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K28" s="74" t="s">
+      <c r="K28" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="74"/>
+      <c r="L28" s="72"/>
       <c r="M28" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K29" s="74" t="s">
+      <c r="K29" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="L29" s="74"/>
+      <c r="L29" s="72"/>
       <c r="M29" s="5" t="s">
         <v>49</v>
       </c>
@@ -2712,8 +2751,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.25">
@@ -2742,7 +2781,7 @@
       </c>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="93" t="s">
         <v>69</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2756,7 +2795,7 @@
       </c>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D35" s="78"/>
+      <c r="D35" s="93"/>
       <c r="E35" s="27" t="s">
         <v>73</v>
       </c>
@@ -2765,17 +2804,17 @@
       </c>
     </row>
     <row r="36" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D36" s="78"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="27" t="s">
         <v>75</v>
       </c>
       <c r="F36" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="54"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="26" t="s">
         <v>1</v>
       </c>
@@ -2803,26 +2842,26 @@
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37" s="7"/>
-      <c r="D37" s="78"/>
+      <c r="D37" s="93"/>
       <c r="E37" s="27" t="s">
         <v>78</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
       <c r="L37" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="M37" s="60" t="s">
+      <c r="M37" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60" t="s">
+      <c r="N37" s="76"/>
+      <c r="O37" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="P37" s="60"/>
+      <c r="P37" s="76"/>
       <c r="Q37" s="26" t="s">
         <v>66</v>
       </c>
@@ -2848,10 +2887,10 @@
       <c r="F39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="L39" s="80" t="s">
+      <c r="L39" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="80"/>
+      <c r="M39" s="73"/>
       <c r="O39" s="18"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.25">
@@ -2861,22 +2900,22 @@
       <c r="F40" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
       <c r="O40" s="18"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
       <c r="O41" s="18"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="M44" s="18"/>
@@ -2884,6 +2923,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="J36:K37"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="M15:W16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="P23:S23"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="L39:M43"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M37:N37"/>
     <mergeCell ref="E6:K7"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="F9:G9"/>
@@ -2900,27 +2960,6 @@
     <mergeCell ref="T9:W9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:K10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="L39:M43"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="J36:K37"/>
-    <mergeCell ref="O22:O23"/>
-    <mergeCell ref="M15:W16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="P23:S23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
   <si>
     <t>byte 0</t>
   </si>
@@ -270,9 +270,6 @@
     <t>0x09</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>index (for arrays)</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>Master</t>
+  </si>
+  <si>
+    <t>Implementation status</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -620,58 +620,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -683,59 +632,109 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,20 +747,24 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1049,633 +1052,652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U28"/>
+  <dimension ref="A2:V28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D2" s="58" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="E2" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="73"/>
+      <c r="H3" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="L3" s="79"/>
+      <c r="M3" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="75"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
+        <v>1</v>
+      </c>
+      <c r="G4" s="35">
+        <v>2</v>
+      </c>
+      <c r="H4" s="42">
+        <v>3</v>
+      </c>
+      <c r="I4" s="34">
+        <v>4</v>
+      </c>
+      <c r="J4" s="34">
+        <v>5</v>
+      </c>
+      <c r="K4" s="39">
+        <v>6</v>
+      </c>
+      <c r="L4" s="39">
+        <v>7</v>
+      </c>
+      <c r="M4" s="36">
+        <v>8</v>
+      </c>
+      <c r="N4" s="36">
+        <v>9</v>
+      </c>
+      <c r="O4" s="36">
+        <v>10</v>
+      </c>
+      <c r="P4" s="36">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>12</v>
+      </c>
+      <c r="R4" s="36">
+        <v>13</v>
+      </c>
+      <c r="S4" s="37">
+        <v>14</v>
+      </c>
+      <c r="T4" s="37">
+        <v>15</v>
+      </c>
+      <c r="U4" s="40">
+        <v>16</v>
+      </c>
+      <c r="V4" s="40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="65"/>
+      <c r="H5" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" s="45"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="57"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="51">
-        <v>0</v>
-      </c>
-      <c r="E4" s="52">
-        <v>1</v>
-      </c>
-      <c r="F4" s="52">
-        <v>2</v>
-      </c>
-      <c r="G4" s="80">
-        <v>3</v>
-      </c>
-      <c r="H4" s="51">
-        <v>4</v>
-      </c>
-      <c r="I4" s="51">
-        <v>5</v>
-      </c>
-      <c r="J4" s="70">
-        <v>6</v>
-      </c>
-      <c r="K4" s="70">
-        <v>7</v>
-      </c>
-      <c r="L4" s="53">
-        <v>8</v>
-      </c>
-      <c r="M4" s="53">
-        <v>9</v>
-      </c>
-      <c r="N4" s="53">
-        <v>10</v>
-      </c>
-      <c r="O4" s="53">
-        <v>11</v>
-      </c>
-      <c r="P4" s="53">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="53">
+      <c r="L6" s="49"/>
+      <c r="M6" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" s="45"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" s="45"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" s="45"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" s="45"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" s="45"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" s="45"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" s="45"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" s="45"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" s="45"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="F16" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="54">
+      <c r="I21" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="54">
-        <v>15</v>
-      </c>
-      <c r="T4" s="71">
-        <v>16</v>
-      </c>
-      <c r="U4" s="71">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U5" s="73"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="74"/>
-      <c r="L6" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6" s="73"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="62"/>
-      <c r="G7" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-      <c r="T7" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" s="73"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" s="73"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="I25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U9" s="73"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U10" s="73"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U11" s="73"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="6" t="s">
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U12" s="73"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U13" s="73"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="74"/>
-      <c r="L14" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="U14" s="73"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E16" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="84" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G22" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="84" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G24" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G25" s="84" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="84" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G26" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G27" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="84" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="G28" s="84" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>69</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:S14"/>
-    <mergeCell ref="L10:S11"/>
-    <mergeCell ref="L12:S12"/>
-    <mergeCell ref="L13:S13"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:K8"/>
-    <mergeCell ref="L7:S8"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="E9:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="H9:K13"/>
-    <mergeCell ref="G9:G14"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="L9:S9"/>
-    <mergeCell ref="E5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L6:S6"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H5:S5"/>
+  <mergeCells count="39">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="M3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="M9:T9"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="M6:T6"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="E2:V2"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:T14"/>
+    <mergeCell ref="M10:T11"/>
+    <mergeCell ref="M12:T12"/>
+    <mergeCell ref="M13:T13"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="M7:T8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="F9:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I9:L13"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1734,10 +1756,10 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="41"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1965,10 +1987,10 @@
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>35</v>
@@ -1984,14 +2006,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -2025,10 +2047,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="84"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -2044,8 +2066,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -2063,22 +2085,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="81"/>
       <c r="F30" s="23" t="s">
         <v>35</v>
       </c>
@@ -2093,38 +2115,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="81"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="distant IO protocol" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="90">
   <si>
     <t>byte 0</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>Implementation status</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>uint16</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -386,120 +392,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -548,23 +440,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -579,9 +460,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -603,7 +484,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,7 +500,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,28 +508,32 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,6 +541,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,87 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,14 +565,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1052,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V28"/>
+  <dimension ref="A2:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,138 +882,148 @@
     <col min="12" max="12" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="E2" s="46" t="s">
+      <c r="B2" s="42"/>
+      <c r="E2" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="41" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="78" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="79"/>
-      <c r="M3" s="74" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="75" t="s">
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="75"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X3" s="45"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>0</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <v>1</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="34">
         <v>2</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="39">
         <v>3</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="33">
         <v>4</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="33">
         <v>5</v>
       </c>
-      <c r="K4" s="39">
+      <c r="K4" s="33">
         <v>6</v>
       </c>
-      <c r="L4" s="39">
+      <c r="L4" s="33">
         <v>7</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="37">
         <v>8</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="37">
         <v>9</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <v>10</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>11</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>12</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <v>13</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="35">
         <v>14</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="35">
         <v>15</v>
       </c>
-      <c r="U4" s="40">
+      <c r="U4" s="35">
         <v>16</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="35">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="58">
+        <v>18</v>
+      </c>
+      <c r="X4" s="58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1206,11 +1032,11 @@
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="68" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="46" t="s">
         <v>70</v>
       </c>
       <c r="I5" s="50" t="s">
@@ -1227,15 +1053,17 @@
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
       <c r="T5" s="50"/>
-      <c r="U5" s="44" t="s">
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V5" s="45"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X5" s="62"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1244,36 +1072,38 @@
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="48" t="s">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49" t="s">
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="70" t="s">
+      <c r="N6" s="48"/>
+      <c r="O6" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="44" t="s">
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="50"/>
+      <c r="U6" s="50"/>
+      <c r="V6" s="50"/>
+      <c r="W6" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V6" s="45"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X6" s="62"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1282,38 +1112,42 @@
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="51"/>
+      <c r="H7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="53" t="s">
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="44" t="s">
+      <c r="N7" s="51"/>
+      <c r="O7" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V7" s="45"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X7" s="62"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1322,30 +1156,32 @@
       <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="44" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X8" s="62"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1354,11 +1190,11 @@
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="63" t="s">
+      <c r="G9" s="53"/>
+      <c r="H9" s="46" t="s">
         <v>70</v>
       </c>
       <c r="I9" s="51" t="s">
@@ -1367,25 +1203,29 @@
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
       <c r="L9" s="51"/>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
       <c r="P9" s="50"/>
       <c r="Q9" s="50"/>
       <c r="R9" s="50"/>
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
-      <c r="U9" s="44" t="s">
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X9" s="62"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="29" t="s">
@@ -1394,32 +1234,34 @@
       <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="63"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="46"/>
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
       <c r="K10" s="51"/>
       <c r="L10" s="51"/>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
       <c r="P10" s="51"/>
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="51"/>
       <c r="T10" s="51"/>
-      <c r="U10" s="44" t="s">
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X10" s="62"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -1428,9 +1270,9 @@
       <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="63"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="51"/>
       <c r="J11" s="51"/>
       <c r="K11" s="51"/>
@@ -1443,15 +1285,17 @@
       <c r="R11" s="51"/>
       <c r="S11" s="51"/>
       <c r="T11" s="51"/>
-      <c r="U11" s="44" t="s">
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X11" s="62"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1460,108 +1304,120 @@
       <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="63"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="51"/>
       <c r="J12" s="51"/>
       <c r="K12" s="51"/>
       <c r="L12" s="51"/>
-      <c r="M12" s="50" t="s">
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="50"/>
       <c r="T12" s="50"/>
-      <c r="U12" s="44" t="s">
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X12" s="62"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="32" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="63"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="51"/>
       <c r="J13" s="51"/>
       <c r="K13" s="51"/>
       <c r="L13" s="51"/>
-      <c r="M13" s="52" t="s">
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
       <c r="P13" s="52"/>
       <c r="Q13" s="52"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52"/>
-      <c r="U13" s="44" t="s">
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="X13" s="62"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="32" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="48" t="s">
+      <c r="G14" s="49"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49" t="s">
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50" t="s">
+      <c r="N14" s="48"/>
+      <c r="O14" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
       <c r="P14" s="50"/>
       <c r="Q14" s="50"/>
       <c r="R14" s="50"/>
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
-      <c r="U14" s="44" t="s">
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="V14" s="45"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F16" s="62" t="s">
+      <c r="X14" s="62"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F16" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" s="28" t="s">
@@ -1586,118 +1442,120 @@
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H20" s="43" t="s">
+      <c r="H20" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="I20" s="43" t="s">
+      <c r="I20" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H21" s="43" t="s">
+      <c r="H21" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="43" t="s">
+      <c r="I21" s="40" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H23" s="43" t="s">
+      <c r="H23" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H24" s="43" t="s">
+      <c r="H24" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="43" t="s">
+      <c r="I24" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="43" t="s">
+      <c r="I25" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H26" s="43" t="s">
+      <c r="H26" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="I26" s="43" t="s">
+      <c r="I26" s="40" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="43" t="s">
+      <c r="I27" s="40" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="43" t="s">
+      <c r="I28" s="40" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="M3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="H9:H14"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="M9:T9"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="M6:T6"/>
-    <mergeCell ref="I5:T5"/>
-    <mergeCell ref="E2:V2"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:T14"/>
-    <mergeCell ref="M10:T11"/>
-    <mergeCell ref="M12:T12"/>
-    <mergeCell ref="M13:T13"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="M7:T8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
+  <mergeCells count="41">
     <mergeCell ref="F9:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I9:L13"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M9:N13"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="O7:V8"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="I5:V5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="H9:H14"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:V14"/>
+    <mergeCell ref="O10:V11"/>
+    <mergeCell ref="O12:V12"/>
+    <mergeCell ref="O13:V13"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="E2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1756,10 +1614,10 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="82"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1987,10 +1845,10 @@
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="83" t="s">
+      <c r="C24" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="83"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>35</v>
@@ -2006,14 +1864,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="80" t="s">
+      <c r="L24" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
-      <c r="Q24" s="80"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -2047,10 +1905,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="84" t="s">
+      <c r="C26" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="84"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -2066,8 +1924,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -2085,22 +1943,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="81" t="s">
+      <c r="C30" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="81"/>
+      <c r="D30" s="55"/>
       <c r="F30" s="23" t="s">
         <v>35</v>
       </c>
@@ -2115,38 +1973,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="81" t="s">
+      <c r="C34" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="81"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/serial_protocols_definition.xlsx
+++ b/serial_protocols_definition.xlsx
@@ -276,9 +276,6 @@
     <t>min delta between two samples : float 32bits big endian</t>
   </si>
   <si>
-    <t>manual id: char[2]</t>
-  </si>
-  <si>
     <t>crc</t>
   </si>
   <si>
@@ -295,13 +292,16 @@
   </si>
   <si>
     <t>uint16</t>
+  </si>
+  <si>
+    <t>data-id: char[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +324,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +384,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -441,11 +453,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -520,6 +533,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,29 +573,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,22 +594,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -871,7 +886,7 @@
   <dimension ref="A2:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,74 +898,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="E2" s="59" t="s">
+      <c r="A2" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="E2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="58"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="58"/>
+      <c r="X2" s="58"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="44" t="s">
+      <c r="N3" s="56"/>
+      <c r="O3" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="45" t="s">
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="45"/>
+      <c r="X3" s="55"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
@@ -1013,250 +1028,250 @@
       <c r="V4" s="35">
         <v>17</v>
       </c>
-      <c r="W4" s="58">
+      <c r="W4" s="42">
         <v>18</v>
       </c>
-      <c r="X4" s="58">
+      <c r="X4" s="42">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="31" t="s">
         <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="46" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X5" s="62"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="46"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="31" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="46"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="49"/>
       <c r="I6" s="47" t="s">
         <v>78</v>
       </c>
       <c r="J6" s="47"/>
       <c r="K6" s="47"/>
       <c r="L6" s="47"/>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="50" t="s">
+      <c r="N6" s="50"/>
+      <c r="O6" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="62"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X6" s="46"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="31" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51" t="s">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="51" t="s">
+      <c r="I7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51" t="s">
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X7" s="62"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
+      <c r="R7" s="45"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="46"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="31" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="62"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" s="46"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="53"/>
-      <c r="H9" s="46" t="s">
+      <c r="G9" s="43"/>
+      <c r="H9" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="50" t="s">
+      <c r="N9" s="45"/>
+      <c r="O9" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="62"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" s="46"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="62"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="46"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="26"/>
@@ -1265,32 +1280,32 @@
         <v>60</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X11" s="62"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X11" s="46"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
@@ -1299,34 +1314,34 @@
         <v>71</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="50" t="s">
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X12" s="62"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X12" s="46"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
@@ -1335,34 +1350,34 @@
         <v>72</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52" t="s">
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X13" s="62"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X13" s="46"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
@@ -1371,52 +1386,52 @@
         <v>75</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="46"/>
+      <c r="F14" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="44"/>
+      <c r="H14" s="49"/>
       <c r="I14" s="47" t="s">
         <v>78</v>
       </c>
       <c r="J14" s="47"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="48" t="s">
+      <c r="M14" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="48"/>
-      <c r="O14" s="50" t="s">
+      <c r="N14" s="50"/>
+      <c r="O14" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="X14" s="62"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="X14" s="46"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="F16" s="49" t="s">
+      <c r="F16" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
       <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" t="s">
         <v>88</v>
-      </c>
-      <c r="N16" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
@@ -1515,6 +1530,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="E2:X2"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="O9:V9"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="O6:V6"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:V14"/>
+    <mergeCell ref="O10:V11"/>
+    <mergeCell ref="O12:V12"/>
+    <mergeCell ref="O13:V13"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:L8"/>
+    <mergeCell ref="O7:V8"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="I5:V5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="F9:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I9:L13"/>
@@ -1526,36 +1570,7 @@
     <mergeCell ref="W11:X11"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="M9:N13"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:L8"/>
-    <mergeCell ref="O7:V8"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="I5:V5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M7:N8"/>
     <mergeCell ref="H9:H14"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="O9:V9"/>
-    <mergeCell ref="F5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="O6:V6"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:V14"/>
-    <mergeCell ref="O10:V11"/>
-    <mergeCell ref="O12:V12"/>
-    <mergeCell ref="O13:V13"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="E2:X2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1614,10 +1629,10 @@
       <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="56"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1845,10 +1860,10 @@
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="15"/>
       <c r="F24" s="23" t="s">
         <v>35</v>
@@ -1864,14 +1879,14 @@
       </c>
       <c r="J24" s="16"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="54" t="s">
+      <c r="L24" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
@@ -1905,10 +1920,10 @@
     <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="57"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="15"/>
@@ -1924,8 +1939,8 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
       <c r="G27" s="15"/>
@@ -1943,22 +1958,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="60"/>
       <c r="F30" s="23" t="s">
         <v>35</v>
       </c>
@@ -1973,38 +1988,38 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
     </row>
     <row r="34" spans="3:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="60"/>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="6">
